--- a/testreport/4 Confidence/bi_catcat_sigtest/x4_Confidence_How_often_do_you_do_the_following__BY_f_uni.xlsx
+++ b/testreport/4 Confidence/bi_catcat_sigtest/x4_Confidence_How_often_do_you_do_the_following__BY_f_uni.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,20 +365,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>by_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>N</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>stat</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>p</t>
         </is>
@@ -390,19 +395,24 @@
           <t>Eat</t>
         </is>
       </c>
-      <c r="B2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>f_uni</t>
+        </is>
+      </c>
+      <c r="C2">
         <v>100</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>chisq</t>
         </is>
       </c>
-      <c r="D2">
-        <v>7.3</v>
-      </c>
       <c r="E2">
-        <v>0.23</v>
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>0.024</v>
       </c>
     </row>
     <row r="3">
@@ -411,19 +421,24 @@
           <t>Eavesdrop</t>
         </is>
       </c>
-      <c r="B3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>f_uni</t>
+        </is>
+      </c>
+      <c r="C3">
         <v>100</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>chisq</t>
         </is>
       </c>
-      <c r="D3">
-        <v>6.5</v>
-      </c>
       <c r="E3">
-        <v>0.334</v>
+        <v>20.3</v>
+      </c>
+      <c r="F3">
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
@@ -432,19 +447,24 @@
           <t>Exercise</t>
         </is>
       </c>
-      <c r="B4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>f_uni</t>
+        </is>
+      </c>
+      <c r="C4">
         <v>100</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>chisq</t>
         </is>
       </c>
-      <c r="D4">
-        <v>4.4</v>
-      </c>
       <c r="E4">
-        <v>0.746</v>
+        <v>16.8</v>
+      </c>
+      <c r="F4">
+        <v>0.062</v>
       </c>
     </row>
     <row r="5">
@@ -453,19 +473,24 @@
           <t>Encourage someone whom you have only recently met and who struggles with simple tasks that they cannot achieve by themselves</t>
         </is>
       </c>
-      <c r="B5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>f_uni</t>
+        </is>
+      </c>
+      <c r="C5">
         <v>100</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>chisq</t>
         </is>
       </c>
-      <c r="D5">
-        <v>6.5</v>
-      </c>
       <c r="E5">
-        <v>0.348</v>
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>0.032</v>
       </c>
     </row>
   </sheetData>
